--- a/studies/2020_Aperol_Git/questionnaire data/raw data questionnaire/Itemsammlung_Fragebogen_EMU_Präsenz_MK.xlsx
+++ b/studies/2020_Aperol_Git/questionnaire data/raw data questionnaire/Itemsammlung_Fragebogen_EMU_Präsenz_MK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/studies/2020_Aperol_Git/questionnaire data/raw data questionnaire/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\studies\2020_Aperol_Git\questionnaire data\raw data questionnaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{89900565-D3D5-48A5-8452-A0DA554B2A70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{165DB87B-7042-410B-9862-FDDFBE11AD6B}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{89900565-D3D5-48A5-8452-A0DA554B2A70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1C61EF49-3A86-45A6-BC5B-08A44F6EBA56}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,30 +25,6 @@
     <author>Klatt, Mandy</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{438B326A-2ACC-4D97-ADC7-74FAECACBB76}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Klatt, Mandy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Es macht vielmehr Sinn, den Umgang mit Unterrichtsstörungen bei Klassenführung zu verankern, so wie es Helmke in seinem Fragebogen getan hat.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F44" authorId="0" shapeId="0" xr:uid="{FCAD7033-7287-4B59-AE08-F8A8F0909C4A}">
       <text>
         <r>
@@ -69,7 +45,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Ähnelt dieses Item nicht zu sehr dem Item "Die Lehrperson hat alles mitbekommen, was in der Klasse passiert ist." (Skala Klassenführung)?</t>
+Items ähneln sehr dem Item "Die Lehrperson hat alles mitbekommen, was in der Klasse passiert ist." (Skala Klassenführung)</t>
         </r>
       </text>
     </comment>
@@ -846,7 +822,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -959,11 +935,14 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1427,7 +1406,7 @@
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1445,12 +1424,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
       <c r="G1" s="23" t="s">
         <v>127</v>
       </c>
@@ -1546,7 +1525,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="35"/>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="38" t="s">
         <v>137</v>
       </c>
       <c r="I6" s="9" t="s">
@@ -1575,7 +1554,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
         <v>4</v>
       </c>
@@ -1592,10 +1571,10 @@
       <c r="G8" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="38" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2181,13 +2160,14 @@
       <c r="B43" s="1">
         <v>3</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="1">
+      <c r="D43" s="4"/>
+      <c r="E43" s="40">
         <v>3</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2195,13 +2175,14 @@
       <c r="B44" s="1">
         <v>4</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="1">
+      <c r="D44" s="4"/>
+      <c r="E44" s="40">
         <v>4</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="4" t="s">
         <v>100</v>
       </c>
     </row>

--- a/studies/2020_Aperol_Git/questionnaire data/raw data questionnaire/Itemsammlung_Fragebogen_EMU_Präsenz_MK.xlsx
+++ b/studies/2020_Aperol_Git/questionnaire data/raw data questionnaire/Itemsammlung_Fragebogen_EMU_Präsenz_MK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\studies\2020_Aperol_Git\questionnaire data\raw data questionnaire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/studies/2020_Aperol_Git/questionnaire data/raw data questionnaire/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{89900565-D3D5-48A5-8452-A0DA554B2A70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1C61EF49-3A86-45A6-BC5B-08A44F6EBA56}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{DA1A1302-CA44-4CEB-A2EB-77653FFE1370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Items ähneln sehr dem Item "Die Lehrperson hat alles mitbekommen, was in der Klasse passiert ist." (Skala Klassenführung)</t>
+Items ähneln sehr dem Item "Die Lehrperson hat alles mitbekommen, was in der Klasse passiert ist." (Skala Klassenführung) --&gt; streichen?</t>
         </r>
       </text>
     </comment>
@@ -938,10 +938,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1405,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,12 +1424,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="23" t="s">
         <v>127</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>80</v>
       </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="40">
+      <c r="E43" s="39">
         <v>3</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -2179,7 +2179,7 @@
         <v>82</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="40">
+      <c r="E44" s="39">
         <v>4</v>
       </c>
       <c r="F44" s="4" t="s">

--- a/studies/2020_Aperol_Git/questionnaire data/raw data questionnaire/Itemsammlung_Fragebogen_EMU_Präsenz_MK.xlsx
+++ b/studies/2020_Aperol_Git/questionnaire data/raw data questionnaire/Itemsammlung_Fragebogen_EMU_Präsenz_MK.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
-  <workbookPr/>
+  <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/studies/2020_Aperol_Git/questionnaire data/raw data questionnaire/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\studies\2020_Aperol_Git\questionnaire data\raw data questionnaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{DA1A1302-CA44-4CEB-A2EB-77653FFE1370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{DA1A1302-CA44-4CEB-A2EB-77653FFE1370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B538A94C-5E36-490A-BABC-5587C3707998}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F57" authorId="0" shapeId="0" xr:uid="{FA0B873B-FF08-4A8D-B59F-5BD3F7A268C1}">
+    <comment ref="F59" authorId="0" shapeId="0" xr:uid="{FA0B873B-FF08-4A8D-B59F-5BD3F7A268C1}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="142">
   <si>
     <t>Ich konnte ungestört arbeiten.</t>
   </si>
@@ -231,12 +231,6 @@
   </si>
   <si>
     <t>Bei Störungen gab ich den Lernenden ein klares STOP-Signal.</t>
-  </si>
-  <si>
-    <t>Störungen hat die Lehrperson mit kurzen Blicken und knappen Gesten geregelt.</t>
-  </si>
-  <si>
-    <t>Störungen habe ich mit kurzen Blicken und knappen Gesten geregelt.</t>
   </si>
   <si>
     <t>Ich habe mich in dieser Unterrichtssequenz mit eigenen Beiträgen am Unterrichtsgespräch beteiligt.</t>
@@ -380,12 +374,6 @@
     <t xml:space="preserve">Der Sprechanteil der Lehrperson an der gesamten Sprechzeit der Stunde war angemessen. </t>
   </si>
   <si>
-    <t>Meine Körpersprache (Gestik, Mimik, Raumposition, Körperhaltung) war angemessen.</t>
-  </si>
-  <si>
-    <t>Die Körpersprache (Gestik, Mimik, Raumposition, Körperhaltung) der Lehrperson war angemessen.</t>
-  </si>
-  <si>
     <t>http://www.unterrichtsdiagnostik.info/downloads/fragebogen/</t>
   </si>
   <si>
@@ -500,20 +488,41 @@
     <t>Die Lernenden waren die ganze Unterrichtssequenz über aktiv bei der Sache.</t>
   </si>
   <si>
-    <t>Ich regle vieles mit kurzen Blicken und knappen Gesten</t>
-  </si>
-  <si>
     <t>Bei Störungen gebe ich ein klares STOP-Signal.</t>
   </si>
   <si>
     <t>Offene Fragen:</t>
+  </si>
+  <si>
+    <t>Die Lehrperson hat vieles mit kurzen Blicken und knappen Gesten geregelt.</t>
+  </si>
+  <si>
+    <t>Ich habe vieles mit kurzen Blicken und knappen Gesten geregelt.</t>
+  </si>
+  <si>
+    <t>Die Gestik und Mimik der Lehrperson waren angemessen.</t>
+  </si>
+  <si>
+    <t>Meine Gestik und Mimik waren angemessen.</t>
+  </si>
+  <si>
+    <t>Meine Raumposition war angemessen.</t>
+  </si>
+  <si>
+    <t>Meine Körperhaltung war angemessen.</t>
+  </si>
+  <si>
+    <t>Die Raumposition der Lehrperson war angemessen.</t>
+  </si>
+  <si>
+    <t>Die Körperhaltung der Lehrperson war angemessen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -607,6 +616,12 @@
       <b/>
       <sz val="18"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -822,7 +837,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -942,6 +957,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1403,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1425,13 +1446,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
       <c r="G1" s="23" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H1" s="33" t="s">
         <v>28</v>
@@ -1481,7 +1502,7 @@
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -1501,7 +1522,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>34</v>
@@ -1526,7 +1547,7 @@
       </c>
       <c r="G6" s="35"/>
       <c r="H6" s="38" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>50</v>
@@ -1549,7 +1570,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1559,24 +1580,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34">
         <v>4</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>52</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
@@ -1595,7 +1612,7 @@
         <v>38</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -1605,23 +1622,23 @@
         <v>6</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34">
         <v>6</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1638,10 +1655,10 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1652,16 +1669,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E12" s="1">
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1680,17 +1697,18 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="1">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1700,17 +1718,18 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="1">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
         <v>2</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1720,17 +1739,18 @@
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="1">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
         <v>3</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1740,17 +1760,18 @@
       <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="1">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
         <v>4</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4" t="s">
         <v>44</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1760,17 +1781,18 @@
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="1">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
         <v>5</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1780,17 +1802,18 @@
       <c r="B19" s="1">
         <v>6</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="1">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
         <v>6</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1802,7 +1825,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1853,7 +1876,7 @@
         <v>23</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1868,7 +1891,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1887,17 +1910,18 @@
       <c r="B27" s="1">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="C27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4">
         <v>1</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>54</v>
+      <c r="F27" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1907,17 +1931,18 @@
       <c r="B28" s="1">
         <v>2</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="1">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4">
         <v>2</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>55</v>
+      <c r="F28" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1927,17 +1952,18 @@
       <c r="B29" s="1">
         <v>3</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="1">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4">
         <v>3</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>56</v>
+      <c r="F29" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1947,17 +1973,18 @@
       <c r="B30" s="1">
         <v>4</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="1">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4">
         <v>4</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>57</v>
+      <c r="F30" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1967,17 +1994,18 @@
       <c r="B31" s="1">
         <v>5</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="1">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4">
         <v>5</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>58</v>
+      <c r="F31" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1987,23 +2015,24 @@
       <c r="B32" s="1">
         <v>6</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="C32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4">
         <v>6</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>62</v>
+      <c r="F32" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2023,16 +2052,16 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2043,16 +2072,16 @@
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2063,22 +2092,22 @@
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -2093,35 +2122,35 @@
         <v>24</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C39" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D40" s="6"/>
       <c r="F40" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G40" s="21"/>
     </row>
@@ -2130,16 +2159,16 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -2147,13 +2176,13 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2161,14 +2190,14 @@
         <v>3</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="39">
         <v>3</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2176,14 +2205,14 @@
         <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="39">
         <v>4</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2191,13 +2220,13 @@
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E45" s="1">
         <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -2205,26 +2234,26 @@
         <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E46" s="1">
         <v>6</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C47" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D47" s="6"/>
       <c r="F47" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G47" s="21"/>
       <c r="I47" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -2232,23 +2261,23 @@
         <v>1</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D48" s="34"/>
       <c r="E48" s="34">
         <v>1</v>
       </c>
       <c r="F48" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="2:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2256,29 +2285,29 @@
         <v>2</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D49" s="34"/>
       <c r="E49" s="34">
         <v>2</v>
       </c>
       <c r="F49" s="34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
     </row>
     <row r="50" spans="2:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C50" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D50" s="37"/>
       <c r="E50" s="34"/>
       <c r="F50" s="37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G50" s="35"/>
       <c r="H50" s="9"/>
@@ -2286,12 +2315,12 @@
     </row>
     <row r="51" spans="2:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C51" s="37" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D51" s="37"/>
       <c r="E51" s="34"/>
       <c r="F51" s="37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G51" s="36"/>
       <c r="H51" s="9"/>
@@ -2299,12 +2328,12 @@
     </row>
     <row r="52" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D52" s="37"/>
       <c r="E52" s="34"/>
       <c r="F52" s="37" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G52" s="35"/>
       <c r="H52" s="9"/>
@@ -2312,12 +2341,12 @@
     </row>
     <row r="53" spans="2:9" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D53" s="37"/>
       <c r="E53" s="34"/>
       <c r="F53" s="37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G53" s="36"/>
       <c r="H53" s="9"/>
@@ -2325,12 +2354,12 @@
     </row>
     <row r="54" spans="2:9" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D54" s="37"/>
       <c r="E54" s="34"/>
       <c r="F54" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G54" s="35"/>
       <c r="H54" s="9"/>
@@ -2341,14 +2370,14 @@
         <v>3</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D55" s="34"/>
       <c r="E55" s="34">
         <v>3</v>
       </c>
       <c r="F55" s="34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G55" s="36"/>
       <c r="H55" s="9"/>
@@ -2356,137 +2385,149 @@
     </row>
     <row r="56" spans="2:9" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="34"/>
       <c r="F56" s="37" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G56" s="35"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="2:9" s="8" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8">
         <v>4</v>
       </c>
-      <c r="C57" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D57" s="34"/>
+      <c r="C57" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="37"/>
       <c r="E57" s="34">
         <v>4</v>
       </c>
-      <c r="F57" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G57" s="36"/>
+      <c r="F57" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="G57" s="35"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="F58" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="G58" s="9"/>
+    <row r="58" spans="2:9" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="8">
+        <v>5</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42">
+        <v>5</v>
+      </c>
+      <c r="F58" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="G58" s="35"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="1">
+    <row r="59" spans="2:9" s="8" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="8">
+        <v>6</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34">
+        <v>6</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" s="36"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="F60" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="1">
         <v>1</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E59" s="1">
+      <c r="C61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="1">
         <v>1</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="1">
+      <c r="F61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B62" s="1">
         <v>2</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="1">
+      <c r="C62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="1">
         <v>2</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B63" s="1">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B61" s="1">
+      <c r="E63" s="1">
         <v>3</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="1">
-        <v>3</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F63" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C64" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F64" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="G64" s="22"/>
+      <c r="G64" s="9"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C65" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F65" s="32" t="s">
-        <v>122</v>
-      </c>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B66" s="1">
-        <v>1</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G66" s="9"/>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C66" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="G66" s="22"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C67" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G67" s="9"/>
     </row>
@@ -2494,33 +2535,49 @@
       <c r="B68" s="1">
         <v>1</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>131</v>
+      <c r="C68" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
-      <c r="F68" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G68" s="12"/>
+      <c r="F68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G68" s="9"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C69" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F69" s="32" t="s">
+        <v>119</v>
+      </c>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G70" s="9"/>
+    <row r="70" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G70" s="12"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G71" s="9"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G73" s="9"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F76" s="9"/>
@@ -2529,6 +2586,14 @@
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/studies/2020_Aperol_Git/questionnaire data/raw data questionnaire/Itemsammlung_Fragebogen_EMU_Präsenz_MK.xlsx
+++ b/studies/2020_Aperol_Git/questionnaire data/raw data questionnaire/Itemsammlung_Fragebogen_EMU_Präsenz_MK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\studies\2020_Aperol_Git\questionnaire data\raw data questionnaire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/studies/2020_Aperol_Git/questionnaire data/raw data questionnaire/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{DA1A1302-CA44-4CEB-A2EB-77653FFE1370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B538A94C-5E36-490A-BABC-5587C3707998}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{46E82987-500E-49D9-9530-069DF9681435}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <author>Klatt, Mandy</author>
   </authors>
   <commentList>
-    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{FCAD7033-7287-4B59-AE08-F8A8F0909C4A}">
+    <comment ref="F43" authorId="0" shapeId="0" xr:uid="{FCAD7033-7287-4B59-AE08-F8A8F0909C4A}">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F59" authorId="0" shapeId="0" xr:uid="{FA0B873B-FF08-4A8D-B59F-5BD3F7A268C1}">
+    <comment ref="F57" authorId="0" shapeId="0" xr:uid="{FA0B873B-FF08-4A8D-B59F-5BD3F7A268C1}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="141">
   <si>
     <t>Ich konnte ungestört arbeiten.</t>
   </si>
@@ -344,12 +344,6 @@
     <t>Ich hatte den Eindruck, dass ich alle oft angesehen habe.</t>
   </si>
   <si>
-    <t>Haltung &amp; Blick &amp; räumliches Verhalten</t>
-  </si>
-  <si>
-    <t>Sprache</t>
-  </si>
-  <si>
     <t>Artikulation, Intonation, Modulation und Lautstärke der Lehrperson waren angemessen.</t>
   </si>
   <si>
@@ -458,9 +452,6 @@
     <t>Skala Klarheit &amp; Strukturiertheit komplett streichen --&gt; zu didaktisch/ inhaltlich</t>
   </si>
   <si>
-    <t xml:space="preserve">einige Items aus Original-Fragebogen weggelassen, da unwichtig </t>
-  </si>
-  <si>
     <t>QUELLE</t>
   </si>
   <si>
@@ -516,6 +507,12 @@
   </si>
   <si>
     <t>Die Körperhaltung der Lehrperson war angemessen.</t>
+  </si>
+  <si>
+    <t>Meine Körpersprache (Gestik, Mimik, Raumposition, Körperhaltung) war angemessen</t>
+  </si>
+  <si>
+    <t>Aus den Komponenten der Körpersprache wurden einzelne Items erstellt.</t>
   </si>
 </sst>
 </file>
@@ -682,7 +679,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -718,19 +715,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -798,17 +782,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -837,7 +810,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -851,12 +824,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -875,7 +842,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -887,55 +854,46 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -956,13 +914,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1424,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,26 +1396,26 @@
     <col min="4" max="4" width="1.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" customWidth="1"/>
     <col min="6" max="6" width="95" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" style="7" customWidth="1"/>
-    <col min="8" max="8" width="39.21875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="35.77734375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="36" style="5" customWidth="1"/>
+    <col min="8" max="8" width="39.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="35.77734375" style="5" customWidth="1"/>
     <col min="10" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="33" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1468,176 +1426,176 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="24" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="G4" s="18"/>
+      <c r="H4" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="8">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29">
         <v>2</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="38" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29">
+        <v>4</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="G8" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="8">
-        <v>3</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34">
-        <v>4</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-    </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>3</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>5</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>5</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="8">
+      <c r="G9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
         <v>6</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29">
         <v>6</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1655,10 +1613,10 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1669,26 +1627,26 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E12" s="1">
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1707,8 +1665,8 @@
       <c r="F14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>124</v>
+      <c r="G14" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1728,8 +1686,8 @@
       <c r="F15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>124</v>
+      <c r="G15" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1749,8 +1707,8 @@
       <c r="F16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>124</v>
+      <c r="G16" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1770,8 +1728,8 @@
       <c r="F17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>124</v>
+      <c r="G17" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1791,8 +1749,8 @@
       <c r="F18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>124</v>
+      <c r="G18" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1812,8 +1770,8 @@
       <c r="F19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>124</v>
+      <c r="G19" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1821,11 +1779,11 @@
         <v>5</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>121</v>
+      <c r="I20" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1875,8 +1833,8 @@
       <c r="F24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>124</v>
+      <c r="G24" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1890,18 +1848,18 @@
       <c r="F25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>124</v>
+      <c r="G25" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1920,8 +1878,8 @@
       <c r="F27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>124</v>
+      <c r="G27" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1941,8 +1899,8 @@
       <c r="F28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>124</v>
+      <c r="G28" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1962,8 +1920,8 @@
       <c r="F29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>124</v>
+      <c r="G29" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1983,8 +1941,8 @@
       <c r="F30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>124</v>
+      <c r="G30" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -2004,8 +1962,8 @@
       <c r="F31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>124</v>
+      <c r="G31" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -2025,13 +1983,13 @@
       <c r="F32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H32" s="7" t="s">
+      <c r="G32" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2039,10 +1997,10 @@
       <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="20"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -2060,8 +2018,8 @@
       <c r="F34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>124</v>
+      <c r="G34" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2080,8 +2038,8 @@
       <c r="F35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>124</v>
+      <c r="G35" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2100,13 +2058,13 @@
       <c r="F36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H36" s="7" t="s">
+      <c r="G36" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2121,8 +2079,8 @@
       <c r="F37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>124</v>
+      <c r="G37" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2131,469 +2089,450 @@
       <c r="F38" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C39" s="5" t="s">
+      <c r="G38" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="F40" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" s="21"/>
-    </row>
-    <row r="41" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
-        <v>2</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="1">
-        <v>2</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="34">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="34">
+        <v>4</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="1">
+        <v>6</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B46" s="6">
+        <v>7</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29">
+        <v>7</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B47" s="6">
+        <v>8</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29">
+        <v>8</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C48" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" s="30"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="2:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C49" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" s="31"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="30"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="2:9" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="31"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="2:9" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G52" s="30"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="2:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B53" s="6">
+        <v>9</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29">
+        <v>9</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" s="31"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="2:9" s="6" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="32"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G54" s="30"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="2:9" s="6" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="6">
+        <v>10</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="32"/>
+      <c r="E55" s="29">
+        <v>10</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="G55" s="30"/>
+      <c r="H55" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" s="6" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="6">
+        <v>11</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36">
+        <v>11</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G56" s="30"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="2:9" s="6" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="6">
+        <v>12</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29">
+        <v>12</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G57" s="31"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="F58" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B61" s="1">
         <v>3</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="39">
+      <c r="C61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="1">
         <v>3</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="1">
-        <v>4</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="39">
-        <v>4</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="1">
-        <v>5</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="1">
-        <v>5</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="1">
-        <v>6</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="1">
-        <v>6</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C47" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="F47" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G47" s="21"/>
-      <c r="I47" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B48" s="8">
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C64" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" s="19"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C65" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B66" s="1">
         <v>1</v>
       </c>
-      <c r="C48" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34">
+      <c r="C66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="1">
         <v>1</v>
       </c>
-      <c r="F48" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B49" s="8">
-        <v>2</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34">
-        <v>2</v>
-      </c>
-      <c r="F49" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G49" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-    </row>
-    <row r="50" spans="2:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C50" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="37"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G50" s="35"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="2:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C51" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="37"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="36"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="37"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="G52" s="35"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="2:9" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="37"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="G53" s="36"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="2:9" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" s="37"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="G54" s="35"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="2:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B55" s="8">
-        <v>3</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34">
-        <v>3</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="G55" s="36"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="2:9" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="37" t="s">
+      <c r="F66" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="G56" s="35"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="2:9" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="8">
-        <v>4</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="34">
-        <v>4</v>
-      </c>
-      <c r="F57" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="G57" s="35"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-    </row>
-    <row r="58" spans="2:9" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="8">
-        <v>5</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42">
-        <v>5</v>
-      </c>
-      <c r="F58" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="2:9" s="8" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="8">
-        <v>6</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34">
-        <v>6</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="G59" s="36"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" s="1"/>
-      <c r="F60" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="1">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B62" s="1">
-        <v>2</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" s="1">
-        <v>2</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B63" s="1">
-        <v>3</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E63" s="1">
-        <v>3</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C66" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="G66" s="22"/>
+      <c r="G66" s="7"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C67" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F67" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="G67" s="9"/>
+      <c r="C67" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G67" s="7"/>
     </row>
     <row r="68" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B68" s="1">
         <v>1</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>116</v>
+      <c r="C68" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G68" s="9"/>
+      <c r="F68" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G68" s="10"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C69" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F69" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B70" s="1">
-        <v>1</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G70" s="12"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G70" s="7"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G73" s="9"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2601,7 +2540,7 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G49" r:id="rId1" xr:uid="{854ED0DA-3484-40EA-8159-1B76FF08EF70}"/>
+    <hyperlink ref="G47" r:id="rId1" xr:uid="{854ED0DA-3484-40EA-8159-1B76FF08EF70}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="99" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
